--- a/Assets/Resources/ship.xlsx
+++ b/Assets/Resources/ship.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>폭격기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock_coin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -395,7 +399,7 @@
     <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +412,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -422,8 +429,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -436,8 +446,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -449,6 +462,9 @@
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
